--- a/milestone1/CST-361-Burndown template 1.0.xlsx
+++ b/milestone1/CST-361-Burndown template 1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Desktop\CST361\milestone1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20343F07-9C34-49E9-956F-C32D12D0501D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22045D3D-0756-4CCB-B7AC-6B962A9B3CF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn Down Chart" sheetId="1" r:id="rId1"/>
@@ -64,11 +64,6 @@
     <t>Estimate</t>
   </si>
   <si>
-    <t>Project Title:
-Release #:
-Sprint #:</t>
-  </si>
-  <si>
     <t>User Story ID</t>
   </si>
   <si>
@@ -202,6 +197,11 @@
   </si>
   <si>
     <t>Create a design report</t>
+  </si>
+  <si>
+    <t>Project Title: IOT Smart Fan
+Release #: 1.0
+Sprint #:1</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1428,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,7 +1441,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1470,16 +1470,16 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
@@ -1514,13 +1514,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -1555,13 +1555,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1596,13 +1596,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -1637,13 +1637,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1678,13 +1678,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1719,13 +1719,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -1760,13 +1760,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -1801,13 +1801,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -1842,13 +1842,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -1883,13 +1883,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -1924,13 +1924,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -2020,31 +2020,31 @@
         <v>11</v>
       </c>
       <c r="G17" s="11">
-        <f>F17 - SUM(G4:G14)</f>
+        <f t="shared" ref="G17:M17" si="1">F17 - SUM(G4:G14)</f>
         <v>11</v>
       </c>
       <c r="H17" s="4">
-        <f>G17 - SUM(H4:H14)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I17" s="4">
-        <f>H17 - SUM(I4:I14)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J17" s="4">
-        <f>I17 - SUM(J4:J14)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="K17" s="4">
-        <f>J17 - SUM(K4:K14)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="L17" s="4">
-        <f>K17 - SUM(L4:L14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M17" s="4">
-        <f>L17 - SUM(M4:M14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N17" s="1"/>
@@ -2452,74 +2452,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -2588,30 +2588,59 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DocumentBusinessValueTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Normal</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">581d4866-74cc-43f1-bef1-bb304cbfeaa5</TermId>
+        </TermInfo>
+      </Terms>
+    </DocumentBusinessValueTaxHTField0>
+    <SecurityClassificationTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">98311b30-b9e9-4d4f-9f64-0688c0d4a234</TermId>
+        </TermInfo>
+      </Terms>
+    </SecurityClassificationTaxHTField0>
+    <DocumentDepartmentTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Academic Program and Course Development</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">59abafec-cbf5-4238-a796-a3b74278f4db</TermId>
+        </TermInfo>
+      </Terms>
+    </DocumentDepartmentTaxHTField0>
+    <TaxCatchAll xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
+      <Value>3</Value>
+      <Value>2</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <DocumentComments xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <DocumentCategoryTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentCategoryTaxHTField0>
+    <DocumentTypeTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentTypeTaxHTField0>
+    <TaxKeywordTaxHTField xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <CourseVersion xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd" xsi:nil="true"/>
+    <DocumentSubjectTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentSubjectTaxHTField0>
+    <DocumentStatusTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentStatusTaxHTField0>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>False</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Course Development" ma:contentTypeID="0x010100A30BC5E90BED914E81F4B67CDEADBEEF0072B4D5296E9CCD41A4B955E8BC4A98B900B6D41DF35BCF664B888FA24C3105B583" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new Course Development document." ma:contentTypeScope="" ma:versionID="9dd9ed6e3bbe7b4f5b00c4ab3cb49488">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="30a82cfc-8d0b-455e-b705-4035c60ff9fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f302115a5f8a1b15560b600ae7cd187" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2840,84 +2869,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>False</openByDefault>
+  <xsnScope/>
+</customXsn>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DocumentBusinessValueTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Normal</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">581d4866-74cc-43f1-bef1-bb304cbfeaa5</TermId>
-        </TermInfo>
-      </Terms>
-    </DocumentBusinessValueTaxHTField0>
-    <SecurityClassificationTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">98311b30-b9e9-4d4f-9f64-0688c0d4a234</TermId>
-        </TermInfo>
-      </Terms>
-    </SecurityClassificationTaxHTField0>
-    <DocumentDepartmentTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Academic Program and Course Development</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">59abafec-cbf5-4238-a796-a3b74278f4db</TermId>
-        </TermInfo>
-      </Terms>
-    </DocumentDepartmentTaxHTField0>
-    <TaxCatchAll xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
-      <Value>3</Value>
-      <Value>2</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <DocumentComments xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <DocumentCategoryTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentCategoryTaxHTField0>
-    <DocumentTypeTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentTypeTaxHTField0>
-    <TaxKeywordTaxHTField xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <CourseVersion xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd" xsi:nil="true"/>
-    <DocumentSubjectTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentSubjectTaxHTField0>
-    <DocumentStatusTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentStatusTaxHTField0>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D99B8B-5BC3-4C4D-8BB2-30740DC6BB75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D81FB1-D23E-47B8-BB91-5BB57B5B1047}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D22E53AA-4DFD-4A24-81B7-6EF9525E35D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{663DF521-9589-4CF0-9082-ABA523AE6376}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{997452FC-C929-408D-8DA3-41D5703D49A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2936,19 +2929,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{663DF521-9589-4CF0-9082-ABA523AE6376}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D22E53AA-4DFD-4A24-81B7-6EF9525E35D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D81FB1-D23E-47B8-BB91-5BB57B5B1047}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D99B8B-5BC3-4C4D-8BB2-30740DC6BB75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>